--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_end.xlsx
@@ -2660,7 +2660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Since when do you know the word “sorry?”
+    <t xml:space="preserve">[name="Ines"]  Since when do you know the word 'sorry?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_end.xlsx
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  If you’re not dead yet, then wake up already.
+    <t xml:space="preserve">[name="W"]  If you're not dead yet, then wake up already.
 </t>
   </si>
   <si>
@@ -1888,15 +1888,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  What’s going on... what happened?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Nothing happened, but just in case that fall gave you amnesia, I’ll give you a quick summary.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  We were ambushed an hour ago. They were quick. Our caster had no time to put up a barrier, and our team got split up. We’re the only ones here.
+    <t xml:space="preserve">[name="Ines"]  What's going on... what happened?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Nothing happened, but just in case that fall gave you amnesia, I'll give you a quick summary.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  We were ambushed an hour ago. They were quick. Our caster had no time to put up a barrier, and our team got split up. We're the only ones here.
 </t>
   </si>
   <si>
@@ -1908,11 +1908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Jammed. I don’t know how they’re doing it, but we’re definitely up against pros. At least more professional than any of our prey before. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But the good news is they didn’t go straight for the convoy. Looks like they got a tip or something, but not the details.
+    <t xml:space="preserve">[name="W"]  Jammed. I don't know how they're doing it, but we're definitely up against pros. At least more professional than any of our prey before. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But the good news is they didn't go straight for the convoy. Looks like they got a tip or something, but not the details.
 </t>
   </si>
   <si>
@@ -1924,11 +1924,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Oh? I figured you’d doubt me, at least a little.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Guess I’ll leave you as bait.
+    <t xml:space="preserve">[name="W"]  Oh? I figured you'd doubt me, at least a little.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Guess I'll leave you as bait.
 </t>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Tsk... You really should do something about that nasty personality of yours. You can tell I’m injured that easy?
+    <t xml:space="preserve">[name="W"]  Tsk... You really should do something about that nasty personality of yours. You can tell I'm injured that easy?
 </t>
   </si>
   <si>
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Do you always scan your teammates with Arts as soon as you wake up? Now that’s a mark of trust, boss.
+    <t xml:space="preserve">[name="W"]  Do you always scan your teammates with Arts as soon as you wake up? Now that's a mark of trust, boss.
 </t>
   </si>
   <si>
@@ -1960,7 +1960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So that’s why, huh? The first thing you do after you open your eyes is surveil your surroundings. What a coward~
+    <t xml:space="preserve">[name="W"]  So that's why, huh? The first thing you do after you open your eyes is surveil your surroundings. What a coward~
 </t>
   </si>
   <si>
@@ -1972,11 +1972,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  No point in dragging along a merc who can’t even stand up straight. You stay here for a sec and I’ll call in the enemy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Hope you guys get along nicely. Can’t have you dying on me too quickly.
+    <t xml:space="preserve">[name="Ines"]  No point in dragging along a merc who can't even stand up straight. You stay here for a sec and I'll call in the enemy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Hope you guys get along nicely. Can't have you dying on me too quickly.
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Confirmation. It’s W.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Confirmation. It's W.
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Or rather, you’ve been following us the whole time, huh...?
+    <t xml:space="preserve">[name="W"]  Or rather, you've been following us the whole time, huh...?
 </t>
   </si>
   <si>
@@ -2020,11 +2020,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Well there’s the trouble, huh? ...I’d love for us to be honest with each other, but the truth is that I don’t know anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You’re badly wounded. And we don’t have time to waste. You might die if we torture you on the spot, and I’m sure nobody wants that.
+    <t xml:space="preserve">[name="W"]  Well there's the trouble, huh? ...I'd love for us to be honest with each other, but the truth is that I don't know anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You're badly wounded. And we don't have time to waste. You might die if we torture you on the spot, and I'm sure nobody wants that.
 </t>
   </si>
   <si>
@@ -2032,11 +2032,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...Don’t you resent her for using you as bait?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You’ll have a better time if you work with us.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...Don't you resent her for using you as bait?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You'll have a better time if you work with us.
 </t>
   </si>
   <si>
@@ -2052,7 +2052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  It’s kind of a Kazdel folk thing. We get Originium slug infestations, you know?
+    <t xml:space="preserve">[name="W"]  It's kind of a Kazdel folk thing. We get Originium slug infestations, you know?
 </t>
   </si>
   <si>
@@ -2064,7 +2064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don’t mince words with—
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don't mince words with—
 </t>
   </si>
   <si>
@@ -2076,11 +2076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Hey, you even said I was bait. Didn’t you think that meant a trap?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Probably should’ve killed me sooner, or ran off, I guess. Here, I’ll give you another chance. Let’s take it from the top.
+    <t xml:space="preserve">[name="W"]  Hey, you even said I was bait. Didn't you think that meant a trap?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Probably should've killed me sooner, or ran off, I guess. Here, I'll give you another chance. Let's take it from the top.
 </t>
   </si>
   <si>
@@ -2092,11 +2092,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You’re insane!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Ugh... Who’s... behind...
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You're insane!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Ugh... Who's... behind...
 </t>
   </si>
   <si>
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  It’s kind of a beginner sword, but I’m not so good with a blade. If my hand slips, you die.
+    <t xml:space="preserve">[name="Ines"]  It's kind of a beginner sword, but I'm not so good with a blade. If my hand slips, you die.
 </t>
   </si>
   <si>
@@ -2112,15 +2112,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I’m pretty close with the shadows. Did you really think you’d be able to catch me without a scout?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Speak up. Who’s your master?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  I’ll... never—
+    <t xml:space="preserve">[name="Ines"]  I'm pretty close with the shadows. Did you really think you'd be able to catch me without a scout?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Speak up. Who's your master?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  I'll... never—
 </t>
   </si>
   <si>
@@ -2128,7 +2128,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Easy there. How’s a guy supposed to talk if you turn his organs to mush?
+    <t xml:space="preserve">[name="W"]  Easy there. How's a guy supposed to talk if you turn his organs to mush?
 </t>
   </si>
   <si>
@@ -2148,15 +2148,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...Damn. You’re still alive.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You could’ve let him kill me first. Too bad you’re so impatient.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Hmph. Of course I’d rather kill them first. These insects have taken too much from us.
+    <t xml:space="preserve">[name="Ines"]  ...Damn. You're still alive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You could've let him kill me first. Too bad you're so impatient.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Hmph. Of course I'd rather kill them first. These insects have taken too much from us.
 </t>
   </si>
   <si>
@@ -2176,11 +2176,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  That wasn’t exactly quiet. I bet more of them are on the way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Isn’t that what we want? Keep them away from the objective.
+    <t xml:space="preserve">[name="W"]  That wasn't exactly quiet. I bet more of them are on the way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Isn't that what we want? Keep them away from the objective.
 </t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  He wasn’t good enough to take down that many of our people. And he was definitely scared. There’s... something else out here.
+    <t xml:space="preserve">[name="Ines"]  He wasn't good enough to take down that many of our people. And he was definitely scared. There's... something else out here.
 </t>
   </si>
   <si>
@@ -2200,7 +2200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  No no, you can’t just fake an open wound away.
+    <t xml:space="preserve">[name="W"]  No no, you can't just fake an open wound away.
 </t>
   </si>
   <si>
@@ -2208,15 +2208,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  But let’s talk about you. Did you really know that I had a present ready for them as soon as you woke up?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  If I didn’t wake up, I would’ve been the bait.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I definitely would’ve waited for you to die before springing the trap.
+    <t xml:space="preserve">[name="W"]  But let's talk about you. Did you really know that I had a present ready for them as soon as you woke up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  If I didn't wake up, I would've been the bait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I definitely would've waited for you to die before springing the trap.
 </t>
   </si>
   <si>
@@ -2228,11 +2228,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  You won’t be a match for her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I guess I’ll cross that bridge when I come to it.
+    <t xml:space="preserve">[name="Ines"]  You won't be a match for her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I guess I'll cross that bridge when I come to it.
 </t>
   </si>
   <si>
@@ -2240,7 +2240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...As if I wasn’t going to do that already.
+    <t xml:space="preserve">[name="Ines"]  ...As if I wasn't going to do that already.
 </t>
   </si>
   <si>
@@ -2248,7 +2248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  That’s the look that usually means we’re boned.
+    <t xml:space="preserve">[name="W"]  That's the look that usually means we're boned.
 </t>
   </si>
   <si>
@@ -2256,11 +2256,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  But there’s no running now. We press on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  And you suck at fighting, so it’s all up to me?
+    <t xml:space="preserve">[name="Ines"]  But there's no running now. We press on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  And you suck at fighting, so it's all up to me?
 </t>
   </si>
   <si>
@@ -2268,7 +2268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  And if we can’t find them?
+    <t xml:space="preserve">[name="W"]  And if we can't find them?
 </t>
   </si>
   <si>
@@ -2276,7 +2276,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior?"]  We wiped out half the escort team, but we couldn’t stop the convoy before point A5.
+    <t xml:space="preserve">[name="Sarkaz Warrior?"]  We wiped out half the escort team, but we couldn't stop the convoy before point A5.
 </t>
   </si>
   <si>
@@ -2284,7 +2284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior?"]  Either Babel’s pulling some next-level strats, or... the real one doesn’t even need protection.
+    <t xml:space="preserve">[name="Sarkaz Warrior?"]  Either Babel's pulling some next-level strats, or... the real one doesn't even need protection.
 </t>
   </si>
   <si>
@@ -2292,15 +2292,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior?"]  Thought we could leave mop-up operations to those scum... Didn’t think they’d blow that too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior?"]  Their skills are all over the place. Hoederer’s team was a lot tougher than I thought.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior?"]  If Babel didn’t score them first, would’ve been nice to get them for ourselves.
+    <t xml:space="preserve">[name="Sarkaz Warrior?"]  Thought we could leave mop-up operations to those scum... Didn't think they'd blow that too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior?"]  Their skills are all over the place. Hoederer's team was a lot tougher than I thought.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior?"]  If Babel didn't score them first, would've been nice to get them for ourselves.
 </t>
   </si>
   <si>
@@ -2308,7 +2308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior?"]  We don’t know what’s up ahead.
+    <t xml:space="preserve">[name="Sarkaz Warrior?"]  We don't know what's up ahead.
 </t>
   </si>
   <si>
@@ -2324,7 +2324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Split up. You go east, I’ll take the west.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Split up. You go east, I'll take the west.
 </t>
   </si>
   <si>
@@ -2332,7 +2332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  These guys aren’t easy marks.
+    <t xml:space="preserve">[name="W"]  These guys aren't easy marks.
 </t>
   </si>
   <si>
@@ -2348,7 +2348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Knock it off. You’ve been at it since the beginning. You’re gonna go blind. Don’t your eyes hurt?
+    <t xml:space="preserve">[name="W"]  Knock it off. You've been at it since the beginning. You're gonna go blind. Don't your eyes hurt?
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  They’re dressed up as mercs, but these aren’t mercs.
+    <t xml:space="preserve">[name="W"]  They're dressed up as mercs, but these aren't mercs.
 </t>
   </si>
   <si>
@@ -2372,7 +2372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  They don’t even need to ambush us. They could take us head on in the ruins and we wouldn’t be able to beat them.
+    <t xml:space="preserve">[name="W"]  They don't even need to ambush us. They could take us head on in the ruins and we wouldn't be able to beat them.
 </t>
   </si>
   <si>
@@ -2388,11 +2388,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  No. I just haven’t gone blind yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You’ve got so many... are those grenades? What are you doing?
+    <t xml:space="preserve">[name="Ines"]  No. I just haven't gone blind yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You've got so many... are those grenades? What are you doing?
 </t>
   </si>
   <si>
@@ -2400,11 +2400,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  A kill’s a kill, no?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Don’t throw your life away for nothing.
+    <t xml:space="preserve">[name="W"]  A kill's a kill, no?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Don't throw your life away for nothing.
 </t>
   </si>
   <si>
@@ -2412,7 +2412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  What’s the point of living? What should I throw my life away for?
+    <t xml:space="preserve">[name="W"]  What's the point of living? What should I throw my life away for?
 </t>
   </si>
   <si>
@@ -2420,7 +2420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  That’s why I never trusted you. You’re not crazy.
+    <t xml:space="preserve">[name="W"]  That's why I never trusted you. You're not crazy.
 </t>
   </si>
   <si>
@@ -2440,11 +2440,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  The way you toss those Originium grenades around, and such big ones too. That’s the kind of crazy that gets my blood pumping.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  How do you do it? All my friends incinerated in a flash, and don’t have a scratch on you?
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  The way you toss those Originium grenades around, and such big ones too. That's the kind of crazy that gets my blood pumping.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  How do you do it? All my friends incinerated in a flash, and don't have a scratch on you?
 </t>
   </si>
   <si>
@@ -2452,11 +2452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  The General’s gonna like you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Just lay it all out for me. What’s Babel got you doing? You can do a lot better somewhere else.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  The General's gonna like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Just lay it all out for me. What's Babel got you doing? You can do a lot better somewhere else.
 </t>
   </si>
   <si>
@@ -2472,23 +2472,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mercenaries are a tool of war. If we’re gonna fight, we gotta have the right tools at hand.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Don’t you think we’re more expendable than that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  That’s your call.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We got another one hiding 17 meters out, 4 o’clock. The one with the scouting arts. You can think it over too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Put the sword down. You can’t beat me. Welcome to try though.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mercenaries are a tool of war. If we're gonna fight, we gotta have the right tools at hand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Don't you think we're more expendable than that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  That's your call.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We got another one hiding 17 meters out, 4 o'clock. The one with the scouting arts. You can think it over too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Put the sword down. You can't beat me. Welcome to try though.
 </t>
   </si>
   <si>
@@ -2500,11 +2500,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You got maybe 20% of your people left. The scattered remnants can’t do much.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  What’s that you’re standing on...?
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You got maybe 20% of your people left. The scattered remnants can't do much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  What's that you're standing on...?
 </t>
   </si>
   <si>
@@ -2512,7 +2512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  It used to be a person. I guess it’s hard to tell at this point.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  It used to be a person. I guess it's hard to tell at this point.
 </t>
   </si>
   <si>
@@ -2520,15 +2520,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You get it now? We’re not your regular mercenaries. We’re not hitmen either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  What if we do this? There’s the two of you, plus your leader. Only one of you three has to die. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  The other two bring back a head. I don’t care whose. We pin all the losses on the head and take in the survivors.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You get it now? We're not your regular mercenaries. We're not hitmen either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  What if we do this? There's the two of you, plus your leader. Only one of you three has to die. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  The other two bring back a head. I don't care whose. We pin all the losses on the head and take in the survivors.
 </t>
   </si>
   <si>
@@ -2536,19 +2536,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Things could’ve gone a different way if we weren’t meeting on the battlefield.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  That’s awful nice of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Just my luck. I suck at fighting. I probably can’t beat this ugly bitch.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Now we’re so honest all of a sudden.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Things could've gone a different way if we weren't meeting on the battlefield.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  That's awful nice of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Just my luck. I suck at fighting. I probably can't beat this ugly bitch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Now we're so honest all of a sudden.
 </t>
   </si>
   <si>
@@ -2572,11 +2572,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’m not gonna stay on the side that’s getting played. I’d much rather play with someone else’s life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Plus, I’m real sick of listening to you. You’re boring. And your shitty little attempt at a death game sucks.
+    <t xml:space="preserve">[name="W"]  I'm not gonna stay on the side that's getting played. I'd much rather play with someone else's life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Plus, I'm real sick of listening to you. You're boring. And your shitty little attempt at a death game sucks.
 </t>
   </si>
   <si>
@@ -2584,11 +2584,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  She’s not Sarkaz. You noticed, right? You stepped right into her minefield. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You know how this will end. You’ve already lost.
+    <t xml:space="preserve">[name="W"]  She's not Sarkaz. You noticed, right? You stepped right into her minefield. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You know how this will end. You've already lost.
 </t>
   </si>
   <si>
@@ -2604,19 +2604,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, I didn’t expect them to spot it so soon. Did intel blow this one?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least we’ve got the mercenaries.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We put them in danger. They have no idea what’s happening.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They’re mercenaries. They live for this. And sooner or later... it will be our burden too.
+    <t xml:space="preserve">Yes, I didn't expect them to spot it so soon. Did intel blow this one?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least we've got the mercenaries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We put them in danger. They have no idea what's happening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They're mercenaries. They live for this. And sooner or later... it will be our burden too.
 </t>
   </si>
   <si>
@@ -2624,15 +2624,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">You’re right, Theresa, but...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There isn’t a single Sarkaz, not a single person, who should die for nothing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...*Sigh*... Then I’m coming with you.
+    <t xml:space="preserve">You're right, Theresa, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There isn't a single Sarkaz, not a single person, who should die for nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...*Sigh*... Then I'm coming with you.
 </t>
   </si>
   <si>
@@ -2648,7 +2648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  There’s a lot of them...
+    <t xml:space="preserve">[name="W"]  There's a lot of them...
 </t>
   </si>
   <si>
@@ -2656,7 +2656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Sorry... I’m just so... sleepy...
+    <t xml:space="preserve">[name="W"]  Sorry... I'm just so... sleepy...
 </t>
   </si>
   <si>
@@ -2664,11 +2664,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I had to watch you pass out last time... Now it’s your turn...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  C’mon, be a team player... I just need a little... nap...
+    <t xml:space="preserve">[name="W"]  I had to watch you pass out last time... Now it's your turn...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  C'mon, be a team player... I just need a little... nap...
 </t>
   </si>
   <si>
@@ -2680,7 +2680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  They’re professionals. Look how they move... they know the battlefield even better than we do...
+    <t xml:space="preserve">[name="Ines"]  They're professionals. Look how they move... they know the battlefield even better than we do...
 </t>
   </si>
   <si>
@@ -2692,7 +2692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Going… to save you…
+    <t xml:space="preserve">Going... to save you...
 </t>
   </si>
   <si>
@@ -2700,11 +2700,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  What... what’s this feeling...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Someone’s close...!
+    <t xml:space="preserve">[name="Ines"]  What... what's this feeling...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Someone's close...!
 </t>
   </si>
   <si>
@@ -2712,15 +2712,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Ines! Where’s W? What are your coordinates?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You lived in Kazdel... before the war... didn’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  There’s something I have to ask...
+    <t xml:space="preserve">[name="Hoederer"]  Ines! Where's W? What are your coordinates?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You lived in Kazdel... before the war... didn't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  There's something I have to ask...
 </t>
   </si>
   <si>
@@ -2736,7 +2736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Okay, I’m listening.  
+    <t xml:space="preserve">[name="Hoederer"]  Okay, I'm listening.  
 </t>
   </si>
   <si>
